--- a/algorytmy i str danyh/labs zvits/Михалевич_ПЗ-23_ASD_lab7 (Recovered).xlsx
+++ b/algorytmy i str danyh/labs zvits/Михалевич_ПЗ-23_ASD_lab7 (Recovered).xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -95,7 +94,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -107,7 +106,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30945822397200351"/>
+          <c:y val="2.8089897995332357E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -133,7 +139,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -216,25 +222,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.9800000000000001E-3</c:v>
+                  <c:v>10996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8734000000000002E-2</c:v>
+                  <c:v>143917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6296390000000001</c:v>
+                  <c:v>2366633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.414912999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>33878474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,25 +306,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.9910000000000002E-3</c:v>
+                  <c:v>4993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1887000000000001E-2</c:v>
+                  <c:v>57968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.699264</c:v>
+                  <c:v>1090372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.500608</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176.07046600000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>14134827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,25 +390,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.2396370000000001</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>3997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>20987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>134924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>753565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>5432847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>33889452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,25 +483,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>3997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1967E-2</c:v>
+                  <c:v>17007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6836999999999999E-2</c:v>
+                  <c:v>71940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33765699999999998</c:v>
+                  <c:v>416759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8354010000000001</c:v>
+                  <c:v>3859773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,25 +576,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.9799999999999997E-4</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9700000000000006E-4</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9870000000000001E-3</c:v>
+                  <c:v>6004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9945999999999998E-2</c:v>
+                  <c:v>24985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5771E-2</c:v>
+                  <c:v>105957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36671399999999998</c:v>
+                  <c:v>448761</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5501640000000001</c:v>
+                  <c:v>1883909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,25 +669,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.979E-3</c:v>
+                  <c:v>8985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1940999999999999E-2</c:v>
+                  <c:v>28984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9275999999999994E-2</c:v>
+                  <c:v>103939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33211200000000002</c:v>
+                  <c:v>397769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3351329999999999</c:v>
+                  <c:v>1600077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="282487472"/>
@@ -823,7 +811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="282481232"/>
@@ -866,7 +854,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -896,7 +884,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -910,7 +898,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -948,7 +936,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1020,25 +1008,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.9800000000000001E-3</c:v>
+                  <c:v>10996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8734000000000002E-2</c:v>
+                  <c:v>143917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6296390000000001</c:v>
+                  <c:v>2366633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.414912999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>33878474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,25 +1089,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.9910000000000002E-3</c:v>
+                  <c:v>4993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1887000000000001E-2</c:v>
+                  <c:v>57968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.699264</c:v>
+                  <c:v>1090372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.500608</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176.07046600000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>14134827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,25 +1170,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.2396370000000001</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>3997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>20987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>134924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>753565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>5432847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>33889452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,25 +1260,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>3997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1967E-2</c:v>
+                  <c:v>17007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6836999999999999E-2</c:v>
+                  <c:v>71940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33765699999999998</c:v>
+                  <c:v>416759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8354010000000001</c:v>
+                  <c:v>3859773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,25 +1350,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.9799999999999997E-4</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9700000000000006E-4</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9870000000000001E-3</c:v>
+                  <c:v>6004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9945999999999998E-2</c:v>
+                  <c:v>24985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5771E-2</c:v>
+                  <c:v>105957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36671399999999998</c:v>
+                  <c:v>448761</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5501640000000001</c:v>
+                  <c:v>1883909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,25 +1440,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.979E-3</c:v>
+                  <c:v>8985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1940999999999999E-2</c:v>
+                  <c:v>28984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9275999999999994E-2</c:v>
+                  <c:v>103939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33211200000000002</c:v>
+                  <c:v>397769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3351329999999999</c:v>
+                  <c:v>1600077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="282486640"/>
@@ -1612,7 +1582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="282478320"/>
@@ -1655,7 +1625,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1685,7 +1655,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1699,7 +1669,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1737,179 +1707,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.6414549307966973E-2"/>
-          <c:y val="0.130140350877193"/>
-          <c:w val="0.91769548545352753"/>
-          <c:h val="0.7081986462218538"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.9800000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8734000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6296390000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.414912999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-359A-4140-A5DF-A4E3123E675E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.9910000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1887000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.699264</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.500608</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-359A-4140-A5DF-A4E3123E675E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -1917,81 +1727,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Quick</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9940000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1967E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-359A-4140-A5DF-A4E3123E675E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2010,10 +1745,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -2025,27 +1760,45 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.9799999999999997E-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9700000000000006E-4</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9870000000000001E-3</c:v>
+                  <c:v>3997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9945999999999998E-2</c:v>
+                  <c:v>17007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3859773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +1806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-359A-4140-A5DF-A4E3123E675E}"/>
+              <c16:uniqueId val="{00000003-DB79-49CB-92E4-664BB3168B84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2062,11 +1815,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counting</c:v>
+                  <c:v>Merge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2085,10 +1838,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -2100,27 +1853,45 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.979E-3</c:v>
+                  <c:v>6004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1940999999999999E-2</c:v>
+                  <c:v>24985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>448761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1883909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,7 +1899,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77BA-40FB-8F6C-25F1DC8934FE}"/>
+              <c16:uniqueId val="{00000004-DB79-49CB-92E4-664BB3168B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DB79-49CB-92E4-664BB3168B84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2141,11 +2005,336 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282479152"/>
-        <c:axId val="282480816"/>
+        <c:axId val="1499380511"/>
+        <c:axId val="1499378015"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bubble</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1048576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4194304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>143917</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2366633</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33878474</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DB79-49CB-92E4-664BB3168B84}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Selection</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1048576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4194304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>4993</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57968</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1090372</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>14134827</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-DB79-49CB-92E4-664BB3168B84}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Shell</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1048576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4194304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20987</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>134924</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>753565</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5432847</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33889452</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-DB79-49CB-92E4-664BB3168B84}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282479152"/>
+        <c:axId val="1499380511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,10 +2374,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282480816"/>
+        <c:crossAx val="1499378015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282480816"/>
+        <c:axId val="1499378015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,10 +2433,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282479152"/>
+        <c:crossAx val="1499380511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2287,7 +2476,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2317,7 +2506,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2331,7 +2520,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2343,7 +2532,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27334711286089242"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2369,157 +2565,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.9800000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8734000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6296390000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2213-4AE9-98F3-8FD69458F21E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.9910000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1887000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.699264</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2213-4AE9-98F3-8FD69458F21E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -2532,23 +2591,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -2557,101 +2614,55 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>3997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3859773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2213-4AE9-98F3-8FD69458F21E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.9799999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9700000000000006E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9870000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2213-4AE9-98F3-8FD69458F21E}"/>
+              <c16:uniqueId val="{00000003-EF5B-4764-9ACB-E593C05FCB7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2660,6 +2671,96 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>448761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1883909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF5B-4764-9ACB-E593C05FCB7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2670,23 +2771,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -2695,32 +2794,55 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9940000000000001E-3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.979E-3</c:v>
+                  <c:v>8985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2213-4AE9-98F3-8FD69458F21E}"/>
+              <c16:uniqueId val="{00000005-EF5B-4764-9ACB-E593C05FCB7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2732,12 +2854,329 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1136232496"/>
-        <c:axId val="1133763984"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1499436287"/>
+        <c:axId val="1499440447"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bubble</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1048576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4194304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>143917</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2366633</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33878474</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EF5B-4764-9ACB-E593C05FCB7E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Selection</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1048576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4194304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>4993</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57968</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1090372</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>14134827</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EF5B-4764-9ACB-E593C05FCB7E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Shell</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1048576</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4194304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20987</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>134924</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>753565</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5432847</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33889452</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EF5B-4764-9ACB-E593C05FCB7E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1136232496"/>
+        <c:axId val="1499436287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,10 +3216,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1133763984"/>
+        <c:crossAx val="1499440447"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2788,7 +3227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1133763984"/>
+        <c:axId val="1499440447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,10 +3275,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1136232496"/>
+        <c:crossAx val="1499436287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2879,7 +3318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2909,7 +3348,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4616,7 +5055,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4724,11 +5163,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4739,11 +5173,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4775,9 +5204,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5136,15 +5562,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>131446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5195,20 +5621,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5225,20 +5651,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5257,9 +5683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5297,7 +5723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5369,7 +5795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5522,12 +5948,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5547,165 +5973,147 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1024</v>
       </c>
       <c r="B2">
-        <v>6.9800000000000001E-3</v>
+        <v>10996</v>
       </c>
       <c r="C2">
-        <v>2.9910000000000002E-3</v>
+        <v>4993</v>
       </c>
       <c r="D2">
-        <v>7.2396370000000001</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>9.9799999999999997E-4</v>
+        <v>999</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4096</v>
       </c>
       <c r="B3">
-        <v>9.8734000000000002E-2</v>
+        <v>143917</v>
       </c>
       <c r="C3">
-        <v>4.1887000000000001E-2</v>
+        <v>57968</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>3997</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>9.9700000000000006E-4</v>
+        <v>997</v>
       </c>
       <c r="G3">
-        <v>1.9940000000000001E-3</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16384</v>
       </c>
       <c r="B4">
-        <v>1.6296390000000001</v>
+        <v>2366633</v>
       </c>
       <c r="C4">
-        <v>0.699264</v>
+        <v>1090372</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>20987</v>
       </c>
       <c r="E4">
-        <v>1.9940000000000001E-3</v>
+        <v>3997</v>
       </c>
       <c r="F4">
-        <v>4.9870000000000001E-3</v>
+        <v>6004</v>
       </c>
       <c r="G4">
-        <v>7.979E-3</v>
+        <v>8985</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>65536</v>
       </c>
       <c r="B5">
-        <v>26.414912999999999</v>
+        <v>33878474</v>
       </c>
       <c r="C5">
-        <v>11.500608</v>
+        <v>14134827</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>134924</v>
       </c>
       <c r="E5">
-        <v>1.1967E-2</v>
+        <v>17007</v>
       </c>
       <c r="F5">
-        <v>1.9945999999999998E-2</v>
+        <v>24985</v>
       </c>
       <c r="G5">
-        <v>2.1940999999999999E-2</v>
+        <v>28984</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>262144</v>
       </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>176.07046600000001</v>
-      </c>
       <c r="D6">
-        <v>300</v>
+        <v>753565</v>
       </c>
       <c r="E6">
-        <v>5.6836999999999999E-2</v>
+        <v>71940</v>
       </c>
       <c r="F6">
-        <v>8.5771E-2</v>
+        <v>105957</v>
       </c>
       <c r="G6">
-        <v>8.9275999999999994E-2</v>
+        <v>103939</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1048576</v>
       </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7">
-        <v>300</v>
-      </c>
       <c r="D7">
-        <v>300</v>
+        <v>5432847</v>
       </c>
       <c r="E7">
-        <v>0.33765699999999998</v>
+        <v>416759</v>
       </c>
       <c r="F7">
-        <v>0.36671399999999998</v>
+        <v>448761</v>
       </c>
       <c r="G7">
-        <v>0.33211200000000002</v>
+        <v>397769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4194304</v>
       </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
       <c r="D8">
-        <v>300</v>
+        <v>33889452</v>
       </c>
       <c r="E8">
-        <v>2.8354010000000001</v>
+        <v>3859773</v>
       </c>
       <c r="F8">
-        <v>1.5501640000000001</v>
+        <v>1883909</v>
       </c>
       <c r="G8">
-        <v>1.3351329999999999</v>
+        <v>1600077</v>
       </c>
     </row>
   </sheetData>

--- a/algorytmy i str danyh/labs zvits/Михалевич_ПЗ-23_ASD_lab7 (Recovered).xlsx
+++ b/algorytmy i str danyh/labs zvits/Михалевич_ПЗ-23_ASD_lab7 (Recovered).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Bubble</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Counting</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2122,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$1</c15:sqref>
@@ -2148,7 +2151,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
@@ -2184,7 +2187,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$C$8</c15:sqref>
@@ -2210,7 +2213,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-DB79-49CB-92E4-664BB3168B84}"/>
                   </c:ext>
@@ -2223,7 +2226,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -2252,7 +2255,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
@@ -2288,7 +2291,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$8</c15:sqref>
@@ -2323,7 +2326,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-DB79-49CB-92E4-664BB3168B84}"/>
                   </c:ext>
@@ -2967,7 +2970,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$1</c15:sqref>
@@ -2994,7 +2997,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
@@ -3030,7 +3033,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$C$8</c15:sqref>
@@ -3055,7 +3058,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-EF5B-4764-9ACB-E593C05FCB7E}"/>
                   </c:ext>
@@ -3068,7 +3071,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -3095,7 +3098,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
@@ -3131,7 +3134,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$8</c15:sqref>
@@ -3165,7 +3168,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-EF5B-4764-9ACB-E593C05FCB7E}"/>
                   </c:ext>
@@ -3322,6 +3325,738 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D91B-4726-A071-34F072D78E69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comparisons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D91B-4726-A071-34F072D78E69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="707883712"/>
+        <c:axId val="707884128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="707883712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707884128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="707884128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707883712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comparisons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA91-406D-9D8F-492A799421FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="706966832"/>
+        <c:axId val="706968080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="706966832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45617935258092746"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706968080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="706968080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Comparisons</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706966832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3519,6 +4254,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5204,6 +6019,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5679,6 +7526,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5945,10 +7852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6116,6 +8023,43 @@
         <v>1600077</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
